--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2930826959814448</v>
+        <v>0.2969342779685747</v>
       </c>
       <c r="C2">
-        <v>0.6682781537457593</v>
+        <v>0.6523826063768725</v>
       </c>
       <c r="D2">
-        <v>0.6925522490380696</v>
+        <v>0.6631625730242209</v>
       </c>
       <c r="E2">
-        <v>0.8321972416669438</v>
+        <v>0.8143479434641073</v>
       </c>
       <c r="F2">
-        <v>0.8014613888310057</v>
+        <v>0.7790613848385668</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1827454790546917</v>
+        <v>0.1798162647974569</v>
       </c>
       <c r="C3">
-        <v>0.6727279890021414</v>
+        <v>0.6425775241922705</v>
       </c>
       <c r="D3">
-        <v>0.6525583053959112</v>
+        <v>0.6172442385525494</v>
       </c>
       <c r="E3">
-        <v>0.8078108103980234</v>
+        <v>0.7856489283086622</v>
       </c>
       <c r="F3">
-        <v>0.8110857198755529</v>
+        <v>0.7869668611904497</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1751244669599359</v>
+        <v>0.1712112111122847</v>
       </c>
       <c r="C4">
-        <v>0.667267671128801</v>
+        <v>0.6344048150359224</v>
       </c>
       <c r="D4">
-        <v>0.680239822100753</v>
+        <v>0.6409194659967445</v>
       </c>
       <c r="E4">
-        <v>0.8247665258124586</v>
+        <v>0.8005744599952864</v>
       </c>
       <c r="F4">
-        <v>0.8323917303274951</v>
+        <v>0.8061213146204157</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3512665537545731</v>
+        <v>0.3430733728802315</v>
       </c>
       <c r="C5">
-        <v>0.6569863224856305</v>
+        <v>0.6296856560655977</v>
       </c>
       <c r="D5">
-        <v>0.6000226061097517</v>
+        <v>0.5655510257999548</v>
       </c>
       <c r="E5">
-        <v>0.7746112612851376</v>
+        <v>0.752031266504229</v>
       </c>
       <c r="F5">
-        <v>0.7146185903206919</v>
+        <v>0.6911645721017333</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2821108933368434</v>
+        <v>0.2773126667199611</v>
       </c>
       <c r="C6">
-        <v>0.6187564428686158</v>
+        <v>0.591515179616282</v>
       </c>
       <c r="D6">
-        <v>0.5452009912703371</v>
+        <v>0.5117981096136305</v>
       </c>
       <c r="E6">
-        <v>0.7383772689285181</v>
+        <v>0.7154006636938706</v>
       </c>
       <c r="F6">
-        <v>0.7081178787046011</v>
+        <v>0.6826124667855324</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3292073500020059</v>
+        <v>0.3190424291774069</v>
       </c>
       <c r="C7">
-        <v>0.6176679148255784</v>
+        <v>0.5868986679421527</v>
       </c>
       <c r="D7">
-        <v>0.5604413023755414</v>
+        <v>0.5229048546182766</v>
       </c>
       <c r="E7">
-        <v>0.7486262768401476</v>
+        <v>0.7231216043088995</v>
       </c>
       <c r="F7">
-        <v>0.6998112662260314</v>
+        <v>0.6734317943900356</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3203120006667242</v>
+        <v>0.3116543284621223</v>
       </c>
       <c r="C8">
-        <v>0.6500291773586946</v>
+        <v>0.6160086454085564</v>
       </c>
       <c r="D8">
-        <v>0.6023908260964594</v>
+        <v>0.559373466974749</v>
       </c>
       <c r="E8">
-        <v>0.7761384065335637</v>
+        <v>0.7479127402142238</v>
       </c>
       <c r="F8">
-        <v>0.7383946087107476</v>
+        <v>0.7076478411394824</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4551168727631426</v>
+        <v>0.4347727426752494</v>
       </c>
       <c r="C9">
-        <v>0.6034445645609074</v>
+        <v>0.5707397934898671</v>
       </c>
       <c r="D9">
-        <v>0.5119877985326513</v>
+        <v>0.4730317857967594</v>
       </c>
       <c r="E9">
-        <v>0.7155332267146308</v>
+        <v>0.687773062715282</v>
       </c>
       <c r="F9">
-        <v>0.5790872764314924</v>
+        <v>0.5566174936231759</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3318563377607012</v>
+        <v>0.3216259016166307</v>
       </c>
       <c r="C10">
-        <v>0.5046953804208647</v>
+        <v>0.4787523040349611</v>
       </c>
       <c r="D10">
-        <v>0.3056665054528888</v>
+        <v>0.2822515447740024</v>
       </c>
       <c r="E10">
-        <v>0.552871147242184</v>
+        <v>0.531273512208168</v>
       </c>
       <c r="F10">
-        <v>0.4661161950283595</v>
+        <v>0.443496512502208</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4311370313718686</v>
+        <v>0.4110739536262513</v>
       </c>
       <c r="C11">
-        <v>0.4792213230111696</v>
+        <v>0.4543498161016222</v>
       </c>
       <c r="D11">
-        <v>0.2842540415932182</v>
+        <v>0.2611419507433211</v>
       </c>
       <c r="E11">
-        <v>0.5331548007785527</v>
+        <v>0.5110204993376695</v>
       </c>
       <c r="F11">
-        <v>0.3326736606566626</v>
+        <v>0.3200002697801009</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2969342779685747</v>
+        <v>0.2424282029193816</v>
       </c>
       <c r="C2">
-        <v>0.6523826063768725</v>
+        <v>0.8606479876901563</v>
       </c>
       <c r="D2">
-        <v>0.6631625730242209</v>
+        <v>0.9662643127001834</v>
       </c>
       <c r="E2">
-        <v>0.8143479434641073</v>
+        <v>0.9829874427988302</v>
       </c>
       <c r="F2">
-        <v>0.7790613848385668</v>
+        <v>0.9802422216961997</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1798162647974569</v>
+        <v>0.2350446055060976</v>
       </c>
       <c r="C3">
-        <v>0.6425775241922705</v>
+        <v>0.6694266347059942</v>
       </c>
       <c r="D3">
-        <v>0.6172442385525494</v>
+        <v>0.6557424132824203</v>
       </c>
       <c r="E3">
-        <v>0.7856489283086622</v>
+        <v>0.8097792373742491</v>
       </c>
       <c r="F3">
-        <v>0.7869668611904497</v>
+        <v>0.7987662202571912</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1712112111122847</v>
+        <v>0.2906257073462492</v>
       </c>
       <c r="C4">
-        <v>0.6344048150359224</v>
+        <v>0.593427585193091</v>
       </c>
       <c r="D4">
-        <v>0.6409194659967445</v>
+        <v>0.5086907582670819</v>
       </c>
       <c r="E4">
-        <v>0.8005744599952864</v>
+        <v>0.7132256012420487</v>
       </c>
       <c r="F4">
-        <v>0.8061213146204157</v>
+        <v>0.6726881052387348</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3430733728802315</v>
+        <v>0.285553328507908</v>
       </c>
       <c r="C5">
-        <v>0.6296856560655977</v>
+        <v>0.6001173429580073</v>
       </c>
       <c r="D5">
-        <v>0.5655510257999548</v>
+        <v>0.5014654803761333</v>
       </c>
       <c r="E5">
-        <v>0.752031266504229</v>
+        <v>0.7081422741060819</v>
       </c>
       <c r="F5">
-        <v>0.6911645721017333</v>
+        <v>0.6707603177585025</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2773126667199611</v>
+        <v>0.3309256279801426</v>
       </c>
       <c r="C6">
-        <v>0.591515179616282</v>
+        <v>0.5995894427742414</v>
       </c>
       <c r="D6">
-        <v>0.5117981096136305</v>
+        <v>0.5229896225650235</v>
       </c>
       <c r="E6">
-        <v>0.7154006636938706</v>
+        <v>0.7231802144452124</v>
       </c>
       <c r="F6">
-        <v>0.6826124667855324</v>
+        <v>0.6672959162720495</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3190424291774069</v>
+        <v>0.3033022613299248</v>
       </c>
       <c r="C7">
-        <v>0.5868986679421527</v>
+        <v>0.6099691865143093</v>
       </c>
       <c r="D7">
-        <v>0.5229048546182766</v>
+        <v>0.5539198755244126</v>
       </c>
       <c r="E7">
-        <v>0.7231216043088995</v>
+        <v>0.7442579361514479</v>
       </c>
       <c r="F7">
-        <v>0.6734317943900356</v>
+        <v>0.7074048215929456</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3116543284621223</v>
+        <v>0.4350639426802458</v>
       </c>
       <c r="C8">
-        <v>0.6160086454085564</v>
+        <v>0.5705583689239097</v>
       </c>
       <c r="D8">
-        <v>0.559373466974749</v>
+        <v>0.473176824636784</v>
       </c>
       <c r="E8">
-        <v>0.7479127402142238</v>
+        <v>0.6878784955475669</v>
       </c>
       <c r="F8">
-        <v>0.7076478411394824</v>
+        <v>0.5565113970078278</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4347727426752494</v>
+        <v>0.3231775937234413</v>
       </c>
       <c r="C9">
-        <v>0.5707397934898671</v>
+        <v>0.4780877477083126</v>
       </c>
       <c r="D9">
-        <v>0.4730317857967594</v>
+        <v>0.2812044068804757</v>
       </c>
       <c r="E9">
-        <v>0.687773062715282</v>
+        <v>0.530287098542361</v>
       </c>
       <c r="F9">
-        <v>0.5566174936231759</v>
+        <v>0.4409497871358622</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3216259016166307</v>
+        <v>0.4102563908036417</v>
       </c>
       <c r="C10">
-        <v>0.4787523040349611</v>
+        <v>0.4537023742366458</v>
       </c>
       <c r="D10">
-        <v>0.2822515447740024</v>
+        <v>0.2602314502614715</v>
       </c>
       <c r="E10">
-        <v>0.531273512208168</v>
+        <v>0.5101288565269284</v>
       </c>
       <c r="F10">
-        <v>0.443496512502208</v>
+        <v>0.3195850505234024</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4110739536262513</v>
+        <v>0.3680998616509512</v>
       </c>
       <c r="C11">
-        <v>0.4543498161016222</v>
+        <v>0.4127123135698351</v>
       </c>
       <c r="D11">
-        <v>0.2611419507433211</v>
+        <v>0.2266679933290587</v>
       </c>
       <c r="E11">
-        <v>0.5110204993376695</v>
+        <v>0.4760966218416789</v>
       </c>
       <c r="F11">
-        <v>0.3200002697801009</v>
+        <v>0.3202605124415285</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2424282029193816</v>
+        <v>0.2969342779685747</v>
       </c>
       <c r="C2">
-        <v>0.8606479876901563</v>
+        <v>0.6523826063768725</v>
       </c>
       <c r="D2">
-        <v>0.9662643127001834</v>
+        <v>0.6631625730242209</v>
       </c>
       <c r="E2">
-        <v>0.9829874427988302</v>
+        <v>0.8143479434641073</v>
       </c>
       <c r="F2">
-        <v>0.9802422216961997</v>
+        <v>0.7790613848385668</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2350446055060976</v>
+        <v>0.1798162647974569</v>
       </c>
       <c r="C3">
-        <v>0.6694266347059942</v>
+        <v>0.6425775241922705</v>
       </c>
       <c r="D3">
-        <v>0.6557424132824203</v>
+        <v>0.6172442385525494</v>
       </c>
       <c r="E3">
-        <v>0.8097792373742491</v>
+        <v>0.7856489283086622</v>
       </c>
       <c r="F3">
-        <v>0.7987662202571912</v>
+        <v>0.7869668611904497</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2906257073462492</v>
+        <v>0.1712112111122847</v>
       </c>
       <c r="C4">
-        <v>0.593427585193091</v>
+        <v>0.6344048150359224</v>
       </c>
       <c r="D4">
-        <v>0.5086907582670819</v>
+        <v>0.6409194659967445</v>
       </c>
       <c r="E4">
-        <v>0.7132256012420487</v>
+        <v>0.8005744599952864</v>
       </c>
       <c r="F4">
-        <v>0.6726881052387348</v>
+        <v>0.8061213146204157</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.285553328507908</v>
+        <v>0.3430733728802315</v>
       </c>
       <c r="C5">
-        <v>0.6001173429580073</v>
+        <v>0.6296856560655977</v>
       </c>
       <c r="D5">
-        <v>0.5014654803761333</v>
+        <v>0.5655510257999548</v>
       </c>
       <c r="E5">
-        <v>0.7081422741060819</v>
+        <v>0.752031266504229</v>
       </c>
       <c r="F5">
-        <v>0.6707603177585025</v>
+        <v>0.6911645721017333</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3309256279801426</v>
+        <v>0.2773126667199611</v>
       </c>
       <c r="C6">
-        <v>0.5995894427742414</v>
+        <v>0.591515179616282</v>
       </c>
       <c r="D6">
-        <v>0.5229896225650235</v>
+        <v>0.5117981096136305</v>
       </c>
       <c r="E6">
-        <v>0.7231802144452124</v>
+        <v>0.7154006636938706</v>
       </c>
       <c r="F6">
-        <v>0.6672959162720495</v>
+        <v>0.6826124667855324</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3033022613299248</v>
+        <v>0.3190424291774069</v>
       </c>
       <c r="C7">
-        <v>0.6099691865143093</v>
+        <v>0.5868986679421527</v>
       </c>
       <c r="D7">
-        <v>0.5539198755244126</v>
+        <v>0.5229048546182766</v>
       </c>
       <c r="E7">
-        <v>0.7442579361514479</v>
+        <v>0.7231216043088995</v>
       </c>
       <c r="F7">
-        <v>0.7074048215929456</v>
+        <v>0.6734317943900356</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4350639426802458</v>
+        <v>0.3116543284621223</v>
       </c>
       <c r="C8">
-        <v>0.5705583689239097</v>
+        <v>0.6160086454085564</v>
       </c>
       <c r="D8">
-        <v>0.473176824636784</v>
+        <v>0.559373466974749</v>
       </c>
       <c r="E8">
-        <v>0.6878784955475669</v>
+        <v>0.7479127402142238</v>
       </c>
       <c r="F8">
-        <v>0.5565113970078278</v>
+        <v>0.7076478411394824</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3231775937234413</v>
+        <v>0.4347727426752494</v>
       </c>
       <c r="C9">
-        <v>0.4780877477083126</v>
+        <v>0.5707397934898671</v>
       </c>
       <c r="D9">
-        <v>0.2812044068804757</v>
+        <v>0.4730317857967594</v>
       </c>
       <c r="E9">
-        <v>0.530287098542361</v>
+        <v>0.687773062715282</v>
       </c>
       <c r="F9">
-        <v>0.4409497871358622</v>
+        <v>0.5566174936231759</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4102563908036417</v>
+        <v>0.3216259016166307</v>
       </c>
       <c r="C10">
-        <v>0.4537023742366458</v>
+        <v>0.4787523040349611</v>
       </c>
       <c r="D10">
-        <v>0.2602314502614715</v>
+        <v>0.2822515447740024</v>
       </c>
       <c r="E10">
-        <v>0.5101288565269284</v>
+        <v>0.531273512208168</v>
       </c>
       <c r="F10">
-        <v>0.3195850505234024</v>
+        <v>0.443496512502208</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3680998616509512</v>
+        <v>0.4110739536262513</v>
       </c>
       <c r="C11">
-        <v>0.4127123135698351</v>
+        <v>0.4543498161016222</v>
       </c>
       <c r="D11">
-        <v>0.2266679933290587</v>
+        <v>0.2611419507433211</v>
       </c>
       <c r="E11">
-        <v>0.4760966218416789</v>
+        <v>0.5110204993376695</v>
       </c>
       <c r="F11">
-        <v>0.3202605124415285</v>
+        <v>0.3200002697801009</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
